--- a/biology/Botanique/Jardin_Oriana_Fallaci/Jardin_Oriana_Fallaci.xlsx
+++ b/biology/Botanique/Jardin_Oriana_Fallaci/Jardin_Oriana_Fallaci.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Oriana Fallaci est un espace vert italien, situé dans le sud de Milan, au cœur de la ville.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin Fallaci, déjà Quadronno Crivelli Garden, est un parc urbain de Milan, près de Viale Beatrice d'Este.
 Créé dans les années 1970 et baptisé en 2007 du nom de la journaliste Oriana Fallaci, il couvre une surface de 5 800 m2.
